--- a/data/trans_orig/P19C09-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P19C09-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{154BC641-2BC3-42CA-AF16-9F123CB104FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC30E5EB-94D0-43AB-9EE3-8351251E3906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D3E7150C-4089-43D4-925A-8E47652BB97A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{90D97541-9046-4EBE-896E-E3B52B353D5D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="287">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por otros motivos en 2007 (Tasa respuesta: 78,01%)</t>
   </si>
@@ -400,499 +400,505 @@
     <t>3,28%</t>
   </si>
   <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
     <t>1,03%</t>
   </si>
   <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
   </si>
   <si>
     <t>98,97%</t>
   </si>
   <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por otros motivos en 2015 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>3,12%</t>
   </si>
   <si>
     <t>1,0%</t>
   </si>
   <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
   </si>
   <si>
     <t>99,0%</t>
   </si>
   <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por otros motivos en 2015 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
     <t>98,14%</t>
   </si>
   <si>
-    <t>93,98%</t>
+    <t>94,19%</t>
   </si>
   <si>
     <t>97,52%</t>
   </si>
   <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
   </si>
   <si>
     <t>3,26%</t>
   </si>
   <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
   </si>
   <si>
     <t>2,23%</t>
   </si>
   <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
   </si>
   <si>
     <t>2,74%</t>
   </si>
   <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
   </si>
   <si>
     <t>96,74%</t>
   </si>
   <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
   </si>
   <si>
     <t>97,77%</t>
   </si>
   <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
   </si>
   <si>
     <t>97,26%</t>
   </si>
   <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
   </si>
   <si>
     <t>3,2%</t>
   </si>
   <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
   </si>
   <si>
     <t>96,8%</t>
   </si>
   <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
   </si>
   <si>
     <t>2,8%</t>
   </si>
   <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
+    <t>4,69%</t>
   </si>
   <si>
     <t>0,52%</t>
   </si>
   <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
   </si>
   <si>
     <t>97,2%</t>
   </si>
   <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
   </si>
   <si>
     <t>99,48%</t>
   </si>
   <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
   </si>
   <si>
     <t>2,85%</t>
   </si>
   <si>
-    <t>4,28%</t>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
   </si>
   <si>
     <t>3,39%</t>
   </si>
   <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
   </si>
   <si>
     <t>97,15%</t>
   </si>
   <si>
-    <t>95,72%</t>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
   </si>
   <si>
     <t>96,61%</t>
   </si>
   <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
   </si>
   <si>
     <t>2,66%</t>
   </si>
   <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
+    <t>3,43%</t>
   </si>
   <si>
     <t>2,76%</t>
   </si>
   <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
   </si>
   <si>
     <t>97,34%</t>
   </si>
   <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
+    <t>96,57%</t>
   </si>
   <si>
     <t>97,24%</t>
   </si>
   <si>
-    <t>96,73%</t>
+    <t>97,65%</t>
   </si>
 </sst>
 </file>
@@ -1304,7 +1310,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF0FC15B-63E9-4536-A960-B4D969FB71CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA8AB9E-0149-4F1C-9642-0F2CBB86012A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2367,7 +2373,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC3A4126-2D3F-403D-80DD-1F61FE3E135F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA23A119-0F40-45E5-86B0-DA87215BE90C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2807,7 +2813,7 @@
         <v>151</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>152</v>
+        <v>46</v>
       </c>
       <c r="H10" s="7">
         <v>23</v>
@@ -2819,10 +2825,10 @@
         <v>31</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>153</v>
+        <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M10" s="7">
         <v>35</v>
@@ -2831,13 +2837,13 @@
         <v>38380</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2852,13 +2858,13 @@
         <v>832441</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="H11" s="7">
         <v>786</v>
@@ -2870,10 +2876,10 @@
         <v>41</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>161</v>
+        <v>22</v>
       </c>
       <c r="M11" s="7">
         <v>1557</v>
@@ -2882,13 +2888,13 @@
         <v>1692259</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2956,13 +2962,13 @@
         <v>9059</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -2971,13 +2977,13 @@
         <v>16595</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
@@ -2986,13 +2992,13 @@
         <v>25654</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3007,25 +3013,25 @@
         <v>617722</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H14" s="7">
         <v>583</v>
       </c>
       <c r="I14" s="7">
-        <v>641162</v>
+        <v>641163</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>176</v>
@@ -3070,7 +3076,7 @@
         <v>598</v>
       </c>
       <c r="I15" s="7">
-        <v>657757</v>
+        <v>657758</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>21</v>
@@ -3117,7 +3123,7 @@
         <v>180</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>181</v>
+        <v>72</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
@@ -3126,13 +3132,13 @@
         <v>31520</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M16" s="7">
         <v>44</v>
@@ -3141,13 +3147,13 @@
         <v>48998</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="P16" s="7" t="s">
-        <v>186</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>187</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3165,10 +3171,10 @@
         <v>60</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>188</v>
+        <v>79</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H17" s="7">
         <v>827</v>
@@ -3177,13 +3183,13 @@
         <v>868256</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M17" s="7">
         <v>1556</v>
@@ -3192,13 +3198,13 @@
         <v>1623941</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>194</v>
+        <v>111</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3269,10 +3275,10 @@
         <v>71</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H19" s="7">
         <v>77</v>
@@ -3281,13 +3287,13 @@
         <v>86161</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="M19" s="7">
         <v>122</v>
@@ -3296,13 +3302,13 @@
         <v>134945</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3314,16 +3320,16 @@
         <v>2626</v>
       </c>
       <c r="D20" s="7">
-        <v>2787936</v>
+        <v>2787935</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>80</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H20" s="7">
         <v>2768</v>
@@ -3332,13 +3338,13 @@
         <v>2984023</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="M20" s="7">
         <v>5394</v>
@@ -3347,13 +3353,13 @@
         <v>5771958</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>161</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3365,7 +3371,7 @@
         <v>2671</v>
       </c>
       <c r="D21" s="7">
-        <v>2836720</v>
+        <v>2836719</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>21</v>
@@ -3430,7 +3436,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90112E1B-AE68-45A3-BF82-64F1411DA915}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC3F279-37A0-4C9F-BFF1-B156812F35FC}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3447,7 +3453,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3554,13 +3560,13 @@
         <v>3081</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>133</v>
+        <v>208</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -3569,13 +3575,13 @@
         <v>1880</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -3584,13 +3590,13 @@
         <v>4962</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3605,13 +3611,13 @@
         <v>95694</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>143</v>
+        <v>217</v>
       </c>
       <c r="H5" s="7">
         <v>100</v>
@@ -3620,10 +3626,10 @@
         <v>99121</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -3635,13 +3641,13 @@
         <v>194814</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3709,13 +3715,13 @@
         <v>13885</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -3724,13 +3730,13 @@
         <v>9899</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M7" s="7">
         <v>22</v>
@@ -3739,13 +3745,13 @@
         <v>23785</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3760,13 +3766,13 @@
         <v>412333</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H8" s="7">
         <v>433</v>
@@ -3775,13 +3781,13 @@
         <v>433462</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="M8" s="7">
         <v>832</v>
@@ -3790,13 +3796,13 @@
         <v>845795</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3867,10 +3873,10 @@
         <v>88</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H10" s="7">
         <v>26</v>
@@ -3879,13 +3885,13 @@
         <v>27705</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="M10" s="7">
         <v>47</v>
@@ -3894,13 +3900,13 @@
         <v>49361</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3921,7 +3927,7 @@
         <v>247</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="H11" s="7">
         <v>792</v>
@@ -3930,13 +3936,13 @@
         <v>838668</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>59</v>
+        <v>250</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>249</v>
+        <v>141</v>
       </c>
       <c r="M11" s="7">
         <v>1525</v>
@@ -3945,13 +3951,13 @@
         <v>1633358</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>194</v>
+        <v>251</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4019,13 +4025,13 @@
         <v>15424</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>135</v>
+        <v>241</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -4034,13 +4040,13 @@
         <v>7153</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>253</v>
+        <v>192</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>215</v>
+        <v>256</v>
       </c>
       <c r="M13" s="7">
         <v>21</v>
@@ -4049,13 +4055,13 @@
         <v>22577</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4070,13 +4076,13 @@
         <v>534936</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>144</v>
+        <v>248</v>
       </c>
       <c r="H14" s="7">
         <v>545</v>
@@ -4085,13 +4091,13 @@
         <v>572585</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>259</v>
+        <v>200</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>222</v>
+        <v>261</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M14" s="7">
         <v>1032</v>
@@ -4103,10 +4109,10 @@
         <v>177</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4174,13 +4180,13 @@
         <v>22016</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>213</v>
+        <v>266</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="H16" s="7">
         <v>27</v>
@@ -4189,13 +4195,13 @@
         <v>29761</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="M16" s="7">
         <v>48</v>
@@ -4207,10 +4213,10 @@
         <v>102</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>46</v>
+        <v>270</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>267</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4225,13 +4231,13 @@
         <v>750619</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>220</v>
+        <v>273</v>
       </c>
       <c r="H17" s="7">
         <v>786</v>
@@ -4240,13 +4246,13 @@
         <v>847080</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="M17" s="7">
         <v>1533</v>
@@ -4258,10 +4264,10 @@
         <v>110</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>272</v>
+        <v>42</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>55</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4329,13 +4335,13 @@
         <v>76062</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>50</v>
+        <v>245</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H19" s="7">
         <v>71</v>
@@ -4344,13 +4350,13 @@
         <v>76400</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>275</v>
+        <v>185</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M19" s="7">
         <v>143</v>
@@ -4359,13 +4365,13 @@
         <v>152462</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>197</v>
+        <v>281</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>278</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4377,16 +4383,16 @@
         <v>2458</v>
       </c>
       <c r="D20" s="7">
-        <v>2588272</v>
+        <v>2588271</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>60</v>
+        <v>252</v>
       </c>
       <c r="H20" s="7">
         <v>2656</v>
@@ -4395,28 +4401,28 @@
         <v>2790915</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>282</v>
+        <v>191</v>
       </c>
       <c r="M20" s="7">
         <v>5114</v>
       </c>
       <c r="N20" s="7">
-        <v>5379187</v>
+        <v>5379186</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>284</v>
+        <v>126</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>203</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4428,7 +4434,7 @@
         <v>2530</v>
       </c>
       <c r="D21" s="7">
-        <v>2664334</v>
+        <v>2664333</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>21</v>
@@ -4458,7 +4464,7 @@
         <v>5257</v>
       </c>
       <c r="N21" s="7">
-        <v>5531649</v>
+        <v>5531648</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>21</v>

--- a/data/trans_orig/P19C09-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P19C09-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC30E5EB-94D0-43AB-9EE3-8351251E3906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BF4AE89-7106-4198-9F85-D690300773F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{90D97541-9046-4EBE-896E-E3B52B353D5D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3519ED07-3717-449B-BC5C-0AB347259F7E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="289">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por otros motivos en 2007 (Tasa respuesta: 78,01%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -85,13 +85,13 @@
     <t>1,95%</t>
   </si>
   <si>
-    <t>6,27%</t>
+    <t>6,77%</t>
   </si>
   <si>
     <t>1,07%</t>
   </si>
   <si>
-    <t>3,71%</t>
+    <t>3,62%</t>
   </si>
   <si>
     <t>No</t>
@@ -109,796 +109,802 @@
     <t>98,05%</t>
   </si>
   <si>
-    <t>93,73%</t>
+    <t>93,23%</t>
   </si>
   <si>
     <t>98,93%</t>
   </si>
   <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>2/10</t>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>3,6%</t>
   </si>
   <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
   </si>
   <si>
     <t>4,66%</t>
   </si>
   <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por otros motivos en 2012 (Tasa respuesta: 84,77%)</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
     <t>2,96%</t>
   </si>
   <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
   </si>
   <si>
     <t>97,04%</t>
   </si>
   <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
   </si>
   <si>
     <t>2,26%</t>
   </si>
   <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
   </si>
   <si>
     <t>97,74%</t>
   </si>
   <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
   </si>
   <si>
     <t>1,72%</t>
   </si>
   <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
   </si>
   <si>
     <t>98,28%</t>
   </si>
   <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por otros motivos en 2012 (Tasa respuesta: 84,77%)</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por otros motivos en 2016 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
   </si>
   <si>
     <t>1,04%</t>
   </si>
   <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
   </si>
   <si>
     <t>98,96%</t>
   </si>
   <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
   </si>
   <si>
     <t>1,23%</t>
   </si>
   <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
   </si>
   <si>
     <t>98,77%</t>
   </si>
   <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por otros motivos en 2015 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
   </si>
   <si>
     <t>2,85%</t>
   </si>
   <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
+    <t>1,77%</t>
   </si>
   <si>
     <t>3,39%</t>
   </si>
   <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
   </si>
   <si>
     <t>97,15%</t>
   </si>
   <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
+    <t>98,23%</t>
   </si>
   <si>
     <t>96,61%</t>
   </si>
   <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
   </si>
   <si>
     <t>2,66%</t>
   </si>
   <si>
-    <t>3,43%</t>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
   </si>
   <si>
     <t>2,76%</t>
   </si>
   <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
   </si>
   <si>
     <t>97,34%</t>
   </si>
   <si>
-    <t>96,57%</t>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
   </si>
   <si>
     <t>97,24%</t>
   </si>
   <si>
-    <t>97,65%</t>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
   </si>
 </sst>
 </file>
@@ -1310,7 +1316,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA8AB9E-0149-4F1C-9642-0F2CBB86012A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9076C0-1AE9-484E-9266-EE9C19C89117}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1482,7 +1488,7 @@
         <v>70</v>
       </c>
       <c r="D5" s="7">
-        <v>77765</v>
+        <v>77766</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -1533,7 +1539,7 @@
         <v>70</v>
       </c>
       <c r="D6" s="7">
-        <v>77765</v>
+        <v>77766</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>21</v>
@@ -2132,7 +2138,7 @@
         <v>1490</v>
       </c>
       <c r="N17" s="7">
-        <v>1476573</v>
+        <v>1476572</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>97</v>
@@ -2183,7 +2189,7 @@
         <v>1529</v>
       </c>
       <c r="N18" s="7">
-        <v>1516794</v>
+        <v>1516793</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>21</v>
@@ -2239,13 +2245,13 @@
         <v>150323</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2257,16 +2263,16 @@
         <v>2340</v>
       </c>
       <c r="D20" s="7">
-        <v>2386201</v>
+        <v>2386200</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>91</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H20" s="7">
         <v>2593</v>
@@ -2275,13 +2281,13 @@
         <v>2651221</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M20" s="7">
         <v>4933</v>
@@ -2290,13 +2296,13 @@
         <v>5037423</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2308,7 +2314,7 @@
         <v>2403</v>
       </c>
       <c r="D21" s="7">
-        <v>2450491</v>
+        <v>2450490</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>21</v>
@@ -2352,7 +2358,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2373,7 +2379,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA23A119-0F40-45E5-86B0-DA87215BE90C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF9E60D-608C-4FFB-BB1D-B32E6CC43CFC}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2390,7 +2396,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2503,7 +2509,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -2512,13 +2518,13 @@
         <v>3073</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -2527,13 +2533,13 @@
         <v>3073</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2551,7 +2557,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -2563,13 +2569,13 @@
         <v>90745</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M5" s="7">
         <v>182</v>
@@ -2578,13 +2584,13 @@
         <v>188810</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2652,13 +2658,13 @@
         <v>10101</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
@@ -2667,13 +2673,13 @@
         <v>8739</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M7" s="7">
         <v>17</v>
@@ -2682,13 +2688,13 @@
         <v>18841</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2703,13 +2709,13 @@
         <v>484023</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H8" s="7">
         <v>493</v>
@@ -2718,13 +2724,13 @@
         <v>524041</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M8" s="7">
         <v>950</v>
@@ -2733,13 +2739,13 @@
         <v>1008063</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2807,13 +2813,13 @@
         <v>12146</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>150</v>
+        <v>47</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
       <c r="H10" s="7">
         <v>23</v>
@@ -2822,10 +2828,10 @@
         <v>26233</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>31</v>
+        <v>150</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>152</v>
@@ -2858,10 +2864,10 @@
         <v>832441</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>157</v>
@@ -2873,13 +2879,13 @@
         <v>859819</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>41</v>
+        <v>158</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>22</v>
+        <v>160</v>
       </c>
       <c r="M11" s="7">
         <v>1557</v>
@@ -2888,13 +2894,13 @@
         <v>1692259</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2962,13 +2968,13 @@
         <v>9059</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -2977,13 +2983,13 @@
         <v>16595</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>165</v>
+        <v>103</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
@@ -2992,13 +2998,13 @@
         <v>25654</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3013,13 +3019,13 @@
         <v>617722</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H14" s="7">
         <v>583</v>
@@ -3028,7 +3034,7 @@
         <v>641163</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>174</v>
+        <v>111</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>175</v>
@@ -3117,13 +3123,13 @@
         <v>17477</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
@@ -3132,13 +3138,13 @@
         <v>31520</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M16" s="7">
         <v>44</v>
@@ -3147,13 +3153,13 @@
         <v>48998</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>104</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3168,13 +3174,13 @@
         <v>755686</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>60</v>
+        <v>188</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H17" s="7">
         <v>827</v>
@@ -3183,13 +3189,13 @@
         <v>868256</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="M17" s="7">
         <v>1556</v>
@@ -3198,13 +3204,13 @@
         <v>1623941</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>111</v>
+        <v>194</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3272,13 +3278,13 @@
         <v>48784</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>71</v>
+        <v>196</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="H19" s="7">
         <v>77</v>
@@ -3287,13 +3293,13 @@
         <v>86161</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="M19" s="7">
         <v>122</v>
@@ -3302,13 +3308,13 @@
         <v>134945</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3320,16 +3326,16 @@
         <v>2626</v>
       </c>
       <c r="D20" s="7">
-        <v>2787935</v>
+        <v>2787936</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>80</v>
+        <v>204</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="H20" s="7">
         <v>2768</v>
@@ -3338,13 +3344,13 @@
         <v>2984023</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="M20" s="7">
         <v>5394</v>
@@ -3353,13 +3359,13 @@
         <v>5771958</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3371,7 +3377,7 @@
         <v>2671</v>
       </c>
       <c r="D21" s="7">
-        <v>2836719</v>
+        <v>2836720</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>21</v>
@@ -3415,7 +3421,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -3436,7 +3442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC3F279-37A0-4C9F-BFF1-B156812F35FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A25B16-694C-4E07-AF6C-8FEBE6E87646}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3453,7 +3459,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3560,13 +3566,13 @@
         <v>3081</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>208</v>
+        <v>131</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -3575,13 +3581,13 @@
         <v>1880</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -3590,13 +3596,13 @@
         <v>4962</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3611,13 +3617,13 @@
         <v>95694</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>215</v>
+        <v>162</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>217</v>
+        <v>141</v>
       </c>
       <c r="H5" s="7">
         <v>100</v>
@@ -3626,10 +3632,10 @@
         <v>99121</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -3641,13 +3647,13 @@
         <v>194814</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3715,13 +3721,13 @@
         <v>13885</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>224</v>
+        <v>136</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -3730,13 +3736,13 @@
         <v>9899</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M7" s="7">
         <v>22</v>
@@ -3745,13 +3751,13 @@
         <v>23785</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>230</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>231</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3766,13 +3772,13 @@
         <v>412333</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>233</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>234</v>
+        <v>145</v>
       </c>
       <c r="H8" s="7">
         <v>433</v>
@@ -3781,13 +3787,13 @@
         <v>433462</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="M8" s="7">
         <v>832</v>
@@ -3796,13 +3802,13 @@
         <v>845795</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>239</v>
+        <v>95</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3873,10 +3879,10 @@
         <v>88</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="H10" s="7">
         <v>26</v>
@@ -3885,13 +3891,13 @@
         <v>27705</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>132</v>
+        <v>240</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="M10" s="7">
         <v>47</v>
@@ -3900,13 +3906,13 @@
         <v>49361</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3924,10 +3930,10 @@
         <v>97</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H11" s="7">
         <v>792</v>
@@ -3936,13 +3942,13 @@
         <v>838668</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>141</v>
+        <v>248</v>
       </c>
       <c r="M11" s="7">
         <v>1525</v>
@@ -3951,13 +3957,13 @@
         <v>1633358</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4025,13 +4031,13 @@
         <v>15424</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -4040,7 +4046,7 @@
         <v>7153</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>192</v>
+        <v>254</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>255</v>
@@ -4055,13 +4061,13 @@
         <v>22577</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>257</v>
+        <v>181</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>258</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4076,13 +4082,13 @@
         <v>534936</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="H14" s="7">
         <v>545</v>
@@ -4091,7 +4097,7 @@
         <v>572585</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>261</v>
@@ -4109,10 +4115,10 @@
         <v>177</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>263</v>
+        <v>162</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>264</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4180,13 +4186,13 @@
         <v>22016</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>267</v>
+        <v>122</v>
       </c>
       <c r="H16" s="7">
         <v>27</v>
@@ -4195,13 +4201,13 @@
         <v>29761</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="M16" s="7">
         <v>48</v>
@@ -4213,10 +4219,10 @@
         <v>102</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>33</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4231,13 +4237,13 @@
         <v>750619</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>272</v>
+        <v>128</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H17" s="7">
         <v>786</v>
@@ -4246,13 +4252,13 @@
         <v>847080</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="M17" s="7">
         <v>1533</v>
@@ -4261,13 +4267,13 @@
         <v>1597699</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>42</v>
+        <v>273</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4335,13 +4341,13 @@
         <v>76062</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>245</v>
+        <v>153</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H19" s="7">
         <v>71</v>
@@ -4350,13 +4356,13 @@
         <v>76400</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="M19" s="7">
         <v>143</v>
@@ -4365,13 +4371,13 @@
         <v>152462</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4383,16 +4389,16 @@
         <v>2458</v>
       </c>
       <c r="D20" s="7">
-        <v>2588271</v>
+        <v>2588272</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>282</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>252</v>
+        <v>161</v>
       </c>
       <c r="H20" s="7">
         <v>2656</v>
@@ -4407,7 +4413,7 @@
         <v>284</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>191</v>
+        <v>285</v>
       </c>
       <c r="M20" s="7">
         <v>5114</v>
@@ -4416,13 +4422,13 @@
         <v>5379186</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>126</v>
+        <v>287</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4434,7 +4440,7 @@
         <v>2530</v>
       </c>
       <c r="D21" s="7">
-        <v>2664333</v>
+        <v>2664334</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>21</v>
@@ -4478,7 +4484,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C09-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P19C09-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BF4AE89-7106-4198-9F85-D690300773F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CFB89F2-89CD-47A0-BAFF-85C2E05D50F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3519ED07-3717-449B-BC5C-0AB347259F7E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E5F76745-1A5E-40BF-82DF-9E6EA18ACE8C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="285">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por otros motivos en 2007 (Tasa respuesta: 78,01%)</t>
   </si>
@@ -70,7 +70,7 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -85,13 +85,13 @@
     <t>1,95%</t>
   </si>
   <si>
-    <t>6,77%</t>
+    <t>6,27%</t>
   </si>
   <si>
     <t>1,07%</t>
   </si>
   <si>
-    <t>3,62%</t>
+    <t>3,71%</t>
   </si>
   <si>
     <t>No</t>
@@ -109,13 +109,13 @@
     <t>98,05%</t>
   </si>
   <si>
-    <t>93,23%</t>
+    <t>93,73%</t>
   </si>
   <si>
     <t>98,93%</t>
   </si>
   <si>
-    <t>96,38%</t>
+    <t>96,29%</t>
   </si>
   <si>
     <t>2-10.000 hab</t>
@@ -124,787 +124,775 @@
     <t>3,6%</t>
   </si>
   <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
   </si>
   <si>
     <t>4,66%</t>
   </si>
   <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
   </si>
   <si>
     <t>4,16%</t>
   </si>
   <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
     <t>2,9%</t>
   </si>
   <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
   </si>
   <si>
     <t>97,1%</t>
   </si>
   <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>2,4%</t>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por otros motivos en 2012 (Tasa respuesta: 84,77%)</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
   </si>
   <si>
     <t>1,44%</t>
   </si>
   <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
     <t>3,9%</t>
   </si>
   <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
   </si>
   <si>
     <t>96,1%</t>
   </si>
   <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por otros motivos en 2012 (Tasa respuesta: 84,77%)</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por otros motivos en 2016 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
   </si>
   <si>
     <t>4,28%</t>
   </si>
   <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
   </si>
   <si>
     <t>95,72%</t>
   </si>
   <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
   </si>
   <si>
     <t>3,53%</t>
   </si>
   <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
   </si>
   <si>
     <t>96,47%</t>
   </si>
   <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por otros motivos en 2016 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
     <t>97,34%</t>
   </si>
   <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
   </si>
   <si>
     <t>97,24%</t>
   </si>
   <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
+    <t>96,73%</t>
   </si>
 </sst>
 </file>
@@ -1316,7 +1304,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9076C0-1AE9-484E-9266-EE9C19C89117}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CA40332-3A06-4FAF-BC65-00328AC2F388}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1488,7 +1476,7 @@
         <v>70</v>
       </c>
       <c r="D5" s="7">
-        <v>77766</v>
+        <v>77765</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -1539,7 +1527,7 @@
         <v>70</v>
       </c>
       <c r="D6" s="7">
-        <v>77766</v>
+        <v>77765</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>21</v>
@@ -2138,7 +2126,7 @@
         <v>1490</v>
       </c>
       <c r="N17" s="7">
-        <v>1476572</v>
+        <v>1476573</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>97</v>
@@ -2189,7 +2177,7 @@
         <v>1529</v>
       </c>
       <c r="N18" s="7">
-        <v>1516793</v>
+        <v>1516794</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>21</v>
@@ -2245,13 +2233,13 @@
         <v>150323</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2263,16 +2251,16 @@
         <v>2340</v>
       </c>
       <c r="D20" s="7">
-        <v>2386200</v>
+        <v>2386201</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>91</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H20" s="7">
         <v>2593</v>
@@ -2281,13 +2269,13 @@
         <v>2651221</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M20" s="7">
         <v>4933</v>
@@ -2296,13 +2284,13 @@
         <v>5037423</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2314,7 +2302,7 @@
         <v>2403</v>
       </c>
       <c r="D21" s="7">
-        <v>2450490</v>
+        <v>2450491</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>21</v>
@@ -2358,7 +2346,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2379,7 +2367,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF9E60D-608C-4FFB-BB1D-B32E6CC43CFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96DA4B12-C402-49BA-A2CE-725A38853430}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2396,7 +2384,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2509,7 +2497,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -2518,13 +2506,13 @@
         <v>3073</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -2533,13 +2521,13 @@
         <v>3073</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2557,7 +2545,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -2569,13 +2557,13 @@
         <v>90745</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M5" s="7">
         <v>182</v>
@@ -2584,13 +2572,13 @@
         <v>188810</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2658,13 +2646,13 @@
         <v>10101</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
@@ -2673,13 +2661,13 @@
         <v>8739</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M7" s="7">
         <v>17</v>
@@ -2688,13 +2676,13 @@
         <v>18841</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2709,13 +2697,13 @@
         <v>484023</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H8" s="7">
         <v>493</v>
@@ -2724,13 +2712,13 @@
         <v>524041</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M8" s="7">
         <v>950</v>
@@ -2739,13 +2727,13 @@
         <v>1008063</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2813,13 +2801,13 @@
         <v>12146</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H10" s="7">
         <v>23</v>
@@ -2828,13 +2816,13 @@
         <v>26233</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>150</v>
+        <v>31</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M10" s="7">
         <v>35</v>
@@ -2843,13 +2831,13 @@
         <v>38380</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>154</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2864,13 +2852,13 @@
         <v>832441</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H11" s="7">
         <v>786</v>
@@ -2879,13 +2867,13 @@
         <v>859819</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>158</v>
+        <v>41</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M11" s="7">
         <v>1557</v>
@@ -2894,13 +2882,13 @@
         <v>1692259</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>163</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2983,13 +2971,13 @@
         <v>16595</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>103</v>
+        <v>167</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
@@ -3031,13 +3019,13 @@
         <v>583</v>
       </c>
       <c r="I14" s="7">
-        <v>641163</v>
+        <v>641162</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>111</v>
+        <v>175</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>176</v>
@@ -3082,7 +3070,7 @@
         <v>598</v>
       </c>
       <c r="I15" s="7">
-        <v>657758</v>
+        <v>657757</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>21</v>
@@ -3123,13 +3111,13 @@
         <v>17477</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
@@ -3174,10 +3162,10 @@
         <v>755686</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>189</v>
@@ -3278,13 +3266,13 @@
         <v>48784</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H19" s="7">
         <v>77</v>
@@ -3311,10 +3299,10 @@
         <v>201</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3329,13 +3317,13 @@
         <v>2787936</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H20" s="7">
         <v>2768</v>
@@ -3344,13 +3332,13 @@
         <v>2984023</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M20" s="7">
         <v>5394</v>
@@ -3359,13 +3347,13 @@
         <v>5771958</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>210</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>211</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3421,7 +3409,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -3442,7 +3430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A25B16-694C-4E07-AF6C-8FEBE6E87646}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6964B9FA-3E74-4FE6-A2DE-EA8D0FF44E1A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3459,7 +3447,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3566,13 +3554,13 @@
         <v>3081</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>155</v>
+        <v>211</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -3581,13 +3569,13 @@
         <v>1880</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -3596,13 +3584,13 @@
         <v>4962</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3617,13 +3605,13 @@
         <v>95694</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>162</v>
+        <v>218</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>219</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H5" s="7">
         <v>100</v>
@@ -3724,10 +3712,10 @@
         <v>225</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>136</v>
+        <v>226</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -3736,13 +3724,13 @@
         <v>9899</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M7" s="7">
         <v>22</v>
@@ -3751,13 +3739,13 @@
         <v>23785</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>87</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3772,13 +3760,13 @@
         <v>412333</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>145</v>
+        <v>236</v>
       </c>
       <c r="H8" s="7">
         <v>433</v>
@@ -3787,13 +3775,13 @@
         <v>433462</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="M8" s="7">
         <v>832</v>
@@ -3802,13 +3790,13 @@
         <v>845795</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>95</v>
+        <v>241</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3879,10 +3867,10 @@
         <v>88</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H10" s="7">
         <v>26</v>
@@ -3891,13 +3879,13 @@
         <v>27705</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>241</v>
+        <v>51</v>
       </c>
       <c r="M10" s="7">
         <v>47</v>
@@ -3909,10 +3897,10 @@
         <v>185</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>243</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3930,10 +3918,10 @@
         <v>97</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H11" s="7">
         <v>792</v>
@@ -3942,13 +3930,13 @@
         <v>838668</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>247</v>
+        <v>59</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M11" s="7">
         <v>1525</v>
@@ -3960,7 +3948,7 @@
         <v>193</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>249</v>
+        <v>194</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>250</v>
@@ -4034,10 +4022,10 @@
         <v>251</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -4046,13 +4034,13 @@
         <v>7153</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>255</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>256</v>
+        <v>215</v>
       </c>
       <c r="M13" s="7">
         <v>21</v>
@@ -4064,10 +4052,10 @@
         <v>169</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>181</v>
+        <v>255</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>155</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4088,7 +4076,7 @@
         <v>258</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>259</v>
+        <v>144</v>
       </c>
       <c r="H14" s="7">
         <v>545</v>
@@ -4097,13 +4085,13 @@
         <v>572585</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="M14" s="7">
         <v>1032</v>
@@ -4115,10 +4103,10 @@
         <v>177</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>162</v>
+        <v>261</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>189</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4189,10 +4177,10 @@
         <v>263</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="H16" s="7">
         <v>27</v>
@@ -4219,10 +4207,10 @@
         <v>102</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4237,13 +4225,13 @@
         <v>750619</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>128</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="H17" s="7">
         <v>786</v>
@@ -4252,13 +4240,13 @@
         <v>847080</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>272</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M17" s="7">
         <v>1533</v>
@@ -4267,13 +4255,13 @@
         <v>1597699</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>274</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4344,10 +4332,10 @@
         <v>263</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>153</v>
+        <v>50</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H19" s="7">
         <v>71</v>
@@ -4356,13 +4344,13 @@
         <v>76400</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="M19" s="7">
         <v>143</v>
@@ -4371,13 +4359,13 @@
         <v>152462</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>280</v>
+        <v>197</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4392,13 +4380,13 @@
         <v>2588272</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>161</v>
+        <v>60</v>
       </c>
       <c r="H20" s="7">
         <v>2656</v>
@@ -4407,28 +4395,28 @@
         <v>2790915</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M20" s="7">
         <v>5114</v>
       </c>
       <c r="N20" s="7">
-        <v>5379186</v>
+        <v>5379187</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>288</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4470,7 +4458,7 @@
         <v>5257</v>
       </c>
       <c r="N21" s="7">
-        <v>5531648</v>
+        <v>5531649</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>21</v>
@@ -4484,7 +4472,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C09-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P19C09-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CFB89F2-89CD-47A0-BAFF-85C2E05D50F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DCBE147-A26F-4057-B788-34D51CF4D886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E5F76745-1A5E-40BF-82DF-9E6EA18ACE8C}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{48F6DCA8-2F83-4626-B1DA-BE7EE86238C8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="247">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por otros motivos en 2007 (Tasa respuesta: 78,01%)</t>
   </si>
@@ -67,789 +67,681 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por otros motivos en 2012 (Tasa respuesta: 84,77%)</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
   </si>
   <si>
     <t>2,96%</t>
   </si>
   <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
   </si>
   <si>
     <t>97,04%</t>
   </si>
   <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por otros motivos en 2012 (Tasa respuesta: 84,77%)</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
   </si>
   <si>
     <t>4,04%</t>
   </si>
   <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por otros motivos en 2016 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
     <t>1,64%</t>
   </si>
   <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
   </si>
   <si>
     <t>98,36%</t>
   </si>
   <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por otros motivos en 2016 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
   </si>
   <si>
     <t>1,86%</t>
   </si>
   <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
   </si>
   <si>
     <t>98,14%</t>
   </si>
   <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
     <t>96,61%</t>
   </si>
   <si>
@@ -874,9 +766,6 @@
     <t>2,76%</t>
   </si>
   <si>
-    <t>3,27%</t>
-  </si>
-  <si>
     <t>96,47%</t>
   </si>
   <si>
@@ -890,9 +779,6 @@
   </si>
   <si>
     <t>97,24%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
   </si>
 </sst>
 </file>
@@ -1304,8 +1190,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CA40332-3A06-4FAF-BC65-00328AC2F388}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B16BE359-FA49-4281-BE86-8439F7BBB1FA}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1422,10 +1308,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>14399</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1437,85 +1323,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="I4" s="7">
-        <v>1848</v>
+        <v>22497</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="N4" s="7">
-        <v>1848</v>
+        <v>36897</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>70</v>
+        <v>455</v>
       </c>
       <c r="D5" s="7">
-        <v>77765</v>
+        <v>463438</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>105</v>
+        <v>524</v>
       </c>
       <c r="I5" s="7">
-        <v>92900</v>
+        <v>515607</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>175</v>
+        <v>979</v>
       </c>
       <c r="N5" s="7">
-        <v>170666</v>
+        <v>979044</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1524,153 +1410,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>70</v>
+        <v>470</v>
       </c>
       <c r="D6" s="7">
-        <v>77765</v>
+        <v>477837</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>107</v>
+        <v>546</v>
       </c>
       <c r="I6" s="7">
-        <v>94748</v>
+        <v>538104</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>177</v>
+        <v>1016</v>
       </c>
       <c r="N6" s="7">
-        <v>172514</v>
+        <v>1015941</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" s="7">
-        <v>14399</v>
+        <v>17300</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I7" s="7">
-        <v>20650</v>
+        <v>26726</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="N7" s="7">
-        <v>35049</v>
+        <v>44026</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>385</v>
+        <v>652</v>
       </c>
       <c r="D8" s="7">
-        <v>385673</v>
+        <v>704828</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>419</v>
+        <v>730</v>
       </c>
       <c r="I8" s="7">
-        <v>422705</v>
+        <v>777500</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>804</v>
+        <v>1382</v>
       </c>
       <c r="N8" s="7">
-        <v>808378</v>
+        <v>1482328</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1679,153 +1565,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>400</v>
+        <v>668</v>
       </c>
       <c r="D9" s="7">
-        <v>400072</v>
+        <v>722128</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>439</v>
+        <v>756</v>
       </c>
       <c r="I9" s="7">
-        <v>443355</v>
+        <v>804226</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>839</v>
+        <v>1424</v>
       </c>
       <c r="N9" s="7">
-        <v>843427</v>
+        <v>1526354</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D10" s="7">
-        <v>17300</v>
+        <v>14052</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I10" s="7">
-        <v>26726</v>
+        <v>15128</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="N10" s="7">
-        <v>44026</v>
+        <v>29179</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>652</v>
+        <v>501</v>
       </c>
       <c r="D11" s="7">
-        <v>704828</v>
+        <v>529996</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H11" s="7">
-        <v>730</v>
+        <v>581</v>
       </c>
       <c r="I11" s="7">
-        <v>777500</v>
+        <v>569481</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M11" s="7">
-        <v>1382</v>
+        <v>1082</v>
       </c>
       <c r="N11" s="7">
-        <v>1482328</v>
+        <v>1099478</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1834,153 +1720,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>668</v>
+        <v>514</v>
       </c>
       <c r="D12" s="7">
-        <v>722128</v>
+        <v>544048</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>756</v>
+        <v>596</v>
       </c>
       <c r="I12" s="7">
-        <v>804226</v>
+        <v>584609</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1424</v>
+        <v>1110</v>
       </c>
       <c r="N12" s="7">
-        <v>1526354</v>
+        <v>1128657</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D13" s="7">
-        <v>14052</v>
+        <v>18538</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I13" s="7">
-        <v>15128</v>
+        <v>21683</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="N13" s="7">
-        <v>29179</v>
+        <v>40221</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>501</v>
+        <v>732</v>
       </c>
       <c r="D14" s="7">
-        <v>529996</v>
+        <v>687939</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
-        <v>581</v>
+        <v>758</v>
       </c>
       <c r="I14" s="7">
-        <v>569481</v>
+        <v>788633</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
-        <v>1082</v>
+        <v>1490</v>
       </c>
       <c r="N14" s="7">
-        <v>1099478</v>
+        <v>1476572</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1989,153 +1875,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>514</v>
+        <v>751</v>
       </c>
       <c r="D15" s="7">
-        <v>544048</v>
+        <v>706477</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>596</v>
+        <v>778</v>
       </c>
       <c r="I15" s="7">
-        <v>584609</v>
+        <v>810316</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1110</v>
+        <v>1529</v>
       </c>
       <c r="N15" s="7">
-        <v>1128657</v>
+        <v>1516793</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="D16" s="7">
-        <v>18538</v>
+        <v>64290</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H16" s="7">
         <v>83</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H16" s="7">
-        <v>20</v>
-      </c>
       <c r="I16" s="7">
-        <v>21683</v>
+        <v>86034</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M16" s="7">
-        <v>39</v>
+        <v>146</v>
       </c>
       <c r="N16" s="7">
-        <v>40221</v>
+        <v>150323</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>732</v>
+        <v>2340</v>
       </c>
       <c r="D17" s="7">
-        <v>687939</v>
+        <v>2386201</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H17" s="7">
-        <v>758</v>
+        <v>2593</v>
       </c>
       <c r="I17" s="7">
-        <v>788633</v>
+        <v>2651221</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M17" s="7">
-        <v>1490</v>
+        <v>4933</v>
       </c>
       <c r="N17" s="7">
-        <v>1476573</v>
+        <v>5037422</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2144,217 +2030,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>751</v>
+        <v>2403</v>
       </c>
       <c r="D18" s="7">
-        <v>706477</v>
+        <v>2450491</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>778</v>
+        <v>2676</v>
       </c>
       <c r="I18" s="7">
-        <v>810316</v>
+        <v>2737255</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1529</v>
+        <v>5079</v>
       </c>
       <c r="N18" s="7">
-        <v>1516794</v>
+        <v>5187745</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>63</v>
-      </c>
-      <c r="D19" s="7">
-        <v>64290</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="H19" s="7">
-        <v>83</v>
-      </c>
-      <c r="I19" s="7">
-        <v>86034</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="A19" t="s">
         <v>102</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="M19" s="7">
-        <v>146</v>
-      </c>
-      <c r="N19" s="7">
-        <v>150323</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2340</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2386201</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2593</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2651221</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M20" s="7">
-        <v>4933</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5037423</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>2403</v>
-      </c>
-      <c r="D21" s="7">
-        <v>2450491</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="7">
-        <v>2676</v>
-      </c>
-      <c r="I21" s="7">
-        <v>2737255</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M21" s="7">
-        <v>5079</v>
-      </c>
-      <c r="N21" s="7">
-        <v>5187746</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>116</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2367,8 +2097,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96DA4B12-C402-49BA-A2CE-725A38853430}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B56F4F95-BE13-4826-A16D-30CF75D4F74D}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2384,7 +2114,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2485,100 +2215,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>10101</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H4" s="7">
         <v>11</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="I4" s="7">
+        <v>11812</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="M4" s="7">
+        <v>20</v>
+      </c>
+      <c r="N4" s="7">
+        <v>21914</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H4" s="7">
-        <v>3</v>
-      </c>
-      <c r="I4" s="7">
-        <v>3073</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M4" s="7">
-        <v>3</v>
-      </c>
-      <c r="N4" s="7">
-        <v>3073</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>122</v>
-      </c>
       <c r="P4" s="7" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>103</v>
+        <v>560</v>
       </c>
       <c r="D5" s="7">
-        <v>98065</v>
+        <v>582088</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="H5" s="7">
-        <v>79</v>
+        <v>572</v>
       </c>
       <c r="I5" s="7">
-        <v>90745</v>
+        <v>614786</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="M5" s="7">
-        <v>182</v>
+        <v>1132</v>
       </c>
       <c r="N5" s="7">
-        <v>188810</v>
+        <v>1196873</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>129</v>
+        <v>23</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2587,153 +2317,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>103</v>
+        <v>569</v>
       </c>
       <c r="D6" s="7">
-        <v>98065</v>
+        <v>592189</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>82</v>
+        <v>583</v>
       </c>
       <c r="I6" s="7">
-        <v>93818</v>
+        <v>626598</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>185</v>
+        <v>1152</v>
       </c>
       <c r="N6" s="7">
-        <v>191883</v>
+        <v>1218787</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D7" s="7">
-        <v>10101</v>
+        <v>12146</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="H7" s="7">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="I7" s="7">
-        <v>8739</v>
+        <v>26233</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="M7" s="7">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="N7" s="7">
-        <v>18841</v>
+        <v>38380</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>139</v>
+        <v>55</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>457</v>
+        <v>771</v>
       </c>
       <c r="D8" s="7">
-        <v>484023</v>
+        <v>832441</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="H8" s="7">
-        <v>493</v>
+        <v>786</v>
       </c>
       <c r="I8" s="7">
-        <v>524041</v>
+        <v>859819</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="M8" s="7">
-        <v>950</v>
+        <v>1557</v>
       </c>
       <c r="N8" s="7">
-        <v>1008063</v>
+        <v>1692259</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>149</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2742,153 +2472,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>466</v>
+        <v>783</v>
       </c>
       <c r="D9" s="7">
-        <v>494124</v>
+        <v>844587</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>501</v>
+        <v>809</v>
       </c>
       <c r="I9" s="7">
-        <v>532780</v>
+        <v>886052</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>967</v>
+        <v>1592</v>
       </c>
       <c r="N9" s="7">
-        <v>1026904</v>
+        <v>1730639</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D10" s="7">
-        <v>12146</v>
+        <v>9059</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="H10" s="7">
+        <v>15</v>
+      </c>
+      <c r="I10" s="7">
+        <v>16595</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="M10" s="7">
         <v>23</v>
       </c>
-      <c r="I10" s="7">
-        <v>26233</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="M10" s="7">
-        <v>35</v>
-      </c>
       <c r="N10" s="7">
-        <v>38380</v>
+        <v>25654</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>69</v>
+        <v>143</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>771</v>
+        <v>566</v>
       </c>
       <c r="D11" s="7">
-        <v>832441</v>
+        <v>617722</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="H11" s="7">
-        <v>786</v>
+        <v>583</v>
       </c>
       <c r="I11" s="7">
-        <v>859819</v>
+        <v>641162</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>41</v>
+        <v>148</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="M11" s="7">
-        <v>1557</v>
+        <v>1149</v>
       </c>
       <c r="N11" s="7">
-        <v>1692259</v>
+        <v>1258884</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2897,153 +2627,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>783</v>
+        <v>574</v>
       </c>
       <c r="D12" s="7">
-        <v>844587</v>
+        <v>626781</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>809</v>
+        <v>598</v>
       </c>
       <c r="I12" s="7">
-        <v>886052</v>
+        <v>657757</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1592</v>
+        <v>1172</v>
       </c>
       <c r="N12" s="7">
-        <v>1730639</v>
+        <v>1284538</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D13" s="7">
-        <v>9059</v>
+        <v>17477</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>164</v>
+        <v>36</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="H13" s="7">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="I13" s="7">
-        <v>16595</v>
+        <v>31520</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="M13" s="7">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="N13" s="7">
-        <v>25654</v>
+        <v>48998</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>566</v>
+        <v>729</v>
       </c>
       <c r="D14" s="7">
-        <v>617722</v>
+        <v>755686</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>172</v>
+        <v>46</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="H14" s="7">
-        <v>583</v>
+        <v>827</v>
       </c>
       <c r="I14" s="7">
-        <v>641162</v>
+        <v>868256</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="M14" s="7">
-        <v>1149</v>
+        <v>1556</v>
       </c>
       <c r="N14" s="7">
-        <v>1258884</v>
+        <v>1623941</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3052,153 +2782,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>574</v>
+        <v>745</v>
       </c>
       <c r="D15" s="7">
-        <v>626781</v>
+        <v>773163</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>598</v>
+        <v>855</v>
       </c>
       <c r="I15" s="7">
-        <v>657757</v>
+        <v>899776</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1172</v>
+        <v>1600</v>
       </c>
       <c r="N15" s="7">
-        <v>1284538</v>
+        <v>1672939</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="D16" s="7">
-        <v>17477</v>
+        <v>48784</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="H16" s="7">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="I16" s="7">
-        <v>31520</v>
+        <v>86161</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>182</v>
+        <v>15</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="M16" s="7">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="N16" s="7">
-        <v>48998</v>
+        <v>134945</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>186</v>
+        <v>124</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>729</v>
+        <v>2626</v>
       </c>
       <c r="D17" s="7">
-        <v>755686</v>
+        <v>2787935</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="H17" s="7">
-        <v>827</v>
+        <v>2768</v>
       </c>
       <c r="I17" s="7">
-        <v>868256</v>
+        <v>2984023</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>190</v>
+        <v>26</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="M17" s="7">
-        <v>1556</v>
+        <v>5394</v>
       </c>
       <c r="N17" s="7">
-        <v>1623941</v>
+        <v>5771958</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>195</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3207,217 +2937,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>745</v>
+        <v>2671</v>
       </c>
       <c r="D18" s="7">
-        <v>773163</v>
+        <v>2836719</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>855</v>
+        <v>2845</v>
       </c>
       <c r="I18" s="7">
-        <v>899776</v>
+        <v>3070184</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1600</v>
+        <v>5516</v>
       </c>
       <c r="N18" s="7">
-        <v>1672939</v>
+        <v>5906903</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>45</v>
-      </c>
-      <c r="D19" s="7">
-        <v>48784</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="H19" s="7">
-        <v>77</v>
-      </c>
-      <c r="I19" s="7">
-        <v>86161</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="M19" s="7">
-        <v>122</v>
-      </c>
-      <c r="N19" s="7">
-        <v>134945</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2626</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2787936</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2768</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2984023</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5394</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5771958</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>2671</v>
-      </c>
-      <c r="D21" s="7">
-        <v>2836720</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="7">
-        <v>2845</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3070184</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M21" s="7">
-        <v>5516</v>
-      </c>
-      <c r="N21" s="7">
-        <v>5906903</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>116</v>
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3430,8 +3004,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6964B9FA-3E74-4FE6-A2DE-EA8D0FF44E1A}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12EDF6C6-1FA9-4D17-9E22-50901A0C42E2}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3447,7 +3021,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3548,100 +3122,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D4" s="7">
-        <v>3081</v>
+        <v>16967</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I4" s="7">
-        <v>1880</v>
+        <v>11780</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>186</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="M4" s="7">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="N4" s="7">
-        <v>4962</v>
+        <v>28746</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>92</v>
+        <v>491</v>
       </c>
       <c r="D5" s="7">
-        <v>95694</v>
+        <v>508026</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>143</v>
+        <v>85</v>
       </c>
       <c r="H5" s="7">
-        <v>100</v>
+        <v>533</v>
       </c>
       <c r="I5" s="7">
-        <v>99121</v>
+        <v>532583</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>195</v>
       </c>
       <c r="M5" s="7">
-        <v>192</v>
+        <v>1024</v>
       </c>
       <c r="N5" s="7">
-        <v>194814</v>
+        <v>1040610</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3650,153 +3224,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>95</v>
+        <v>507</v>
       </c>
       <c r="D6" s="7">
-        <v>98775</v>
+        <v>524993</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>102</v>
+        <v>544</v>
       </c>
       <c r="I6" s="7">
-        <v>101001</v>
+        <v>544363</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>197</v>
+        <v>1051</v>
       </c>
       <c r="N6" s="7">
-        <v>199776</v>
+        <v>1069356</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D7" s="7">
-        <v>13885</v>
+        <v>21656</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>225</v>
+        <v>74</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
       <c r="H7" s="7">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="I7" s="7">
-        <v>9899</v>
+        <v>27705</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>230</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="N7" s="7">
-        <v>23785</v>
+        <v>49361</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>231</v>
+        <v>159</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>233</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>399</v>
+        <v>733</v>
       </c>
       <c r="D8" s="7">
-        <v>412333</v>
+        <v>794690</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>234</v>
+        <v>83</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="H8" s="7">
-        <v>433</v>
+        <v>792</v>
       </c>
       <c r="I8" s="7">
-        <v>433462</v>
+        <v>838668</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>238</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="M8" s="7">
-        <v>832</v>
+        <v>1525</v>
       </c>
       <c r="N8" s="7">
-        <v>845795</v>
+        <v>1633358</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>242</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3805,153 +3379,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>412</v>
+        <v>754</v>
       </c>
       <c r="D9" s="7">
-        <v>426218</v>
+        <v>816346</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>442</v>
+        <v>818</v>
       </c>
       <c r="I9" s="7">
-        <v>443361</v>
+        <v>866373</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>854</v>
+        <v>1572</v>
       </c>
       <c r="N9" s="7">
-        <v>869580</v>
+        <v>1682719</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>14</v>
+      </c>
+      <c r="D10" s="7">
+        <v>15424</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="H10" s="7">
+        <v>7</v>
+      </c>
+      <c r="I10" s="7">
+        <v>7153</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="M10" s="7">
         <v>21</v>
       </c>
-      <c r="D10" s="7">
-        <v>21656</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="H10" s="7">
-        <v>26</v>
-      </c>
-      <c r="I10" s="7">
-        <v>27705</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="M10" s="7">
-        <v>47</v>
-      </c>
       <c r="N10" s="7">
-        <v>49361</v>
+        <v>22577</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>185</v>
+        <v>142</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>187</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>733</v>
+        <v>487</v>
       </c>
       <c r="D11" s="7">
-        <v>794690</v>
+        <v>534936</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>97</v>
+        <v>217</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="H11" s="7">
-        <v>792</v>
+        <v>545</v>
       </c>
       <c r="I11" s="7">
-        <v>838668</v>
+        <v>572585</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>59</v>
+        <v>221</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
       <c r="M11" s="7">
-        <v>1525</v>
+        <v>1032</v>
       </c>
       <c r="N11" s="7">
-        <v>1633358</v>
+        <v>1107521</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>193</v>
+        <v>151</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3960,153 +3534,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>754</v>
+        <v>501</v>
       </c>
       <c r="D12" s="7">
-        <v>816346</v>
+        <v>550360</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>818</v>
+        <v>552</v>
       </c>
       <c r="I12" s="7">
-        <v>866373</v>
+        <v>579738</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1572</v>
+        <v>1053</v>
       </c>
       <c r="N12" s="7">
-        <v>1682719</v>
+        <v>1130098</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D13" s="7">
-        <v>15424</v>
+        <v>22016</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>135</v>
+        <v>226</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="H13" s="7">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="I13" s="7">
-        <v>7153</v>
+        <v>29761</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>254</v>
+        <v>172</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="M13" s="7">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="N13" s="7">
-        <v>22577</v>
+        <v>51777</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>169</v>
+        <v>88</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>255</v>
+        <v>32</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>487</v>
+        <v>747</v>
       </c>
       <c r="D14" s="7">
-        <v>534936</v>
+        <v>750619</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>144</v>
+        <v>233</v>
       </c>
       <c r="H14" s="7">
-        <v>545</v>
+        <v>786</v>
       </c>
       <c r="I14" s="7">
-        <v>572585</v>
+        <v>847080</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>260</v>
+        <v>179</v>
       </c>
       <c r="M14" s="7">
-        <v>1032</v>
+        <v>1533</v>
       </c>
       <c r="N14" s="7">
-        <v>1107521</v>
+        <v>1597699</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>177</v>
+        <v>96</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>262</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4115,153 +3689,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>501</v>
+        <v>768</v>
       </c>
       <c r="D15" s="7">
-        <v>550360</v>
+        <v>772635</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>552</v>
+        <v>813</v>
       </c>
       <c r="I15" s="7">
-        <v>579738</v>
+        <v>876841</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1053</v>
+        <v>1581</v>
       </c>
       <c r="N15" s="7">
-        <v>1130098</v>
+        <v>1649476</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="D16" s="7">
-        <v>22016</v>
+        <v>76062</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>263</v>
+        <v>225</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>213</v>
+        <v>36</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>264</v>
+        <v>237</v>
       </c>
       <c r="H16" s="7">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="I16" s="7">
-        <v>29761</v>
+        <v>76400</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>265</v>
+        <v>238</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>199</v>
+        <v>239</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="M16" s="7">
-        <v>48</v>
+        <v>143</v>
       </c>
       <c r="N16" s="7">
-        <v>51777</v>
+        <v>152462</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>102</v>
+        <v>241</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>46</v>
+        <v>171</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>267</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>747</v>
+        <v>2458</v>
       </c>
       <c r="D17" s="7">
-        <v>750619</v>
+        <v>2588271</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>268</v>
+        <v>231</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>220</v>
+        <v>46</v>
       </c>
       <c r="H17" s="7">
-        <v>786</v>
+        <v>2656</v>
       </c>
       <c r="I17" s="7">
-        <v>847080</v>
+        <v>2790915</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>271</v>
+        <v>244</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>207</v>
+        <v>245</v>
       </c>
       <c r="M17" s="7">
-        <v>1533</v>
+        <v>5114</v>
       </c>
       <c r="N17" s="7">
-        <v>1597699</v>
+        <v>5379186</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>110</v>
+        <v>246</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>272</v>
+        <v>116</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>55</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4270,217 +3844,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>768</v>
+        <v>2530</v>
       </c>
       <c r="D18" s="7">
-        <v>772635</v>
+        <v>2664333</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>813</v>
+        <v>2727</v>
       </c>
       <c r="I18" s="7">
-        <v>876841</v>
+        <v>2867315</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1581</v>
+        <v>5257</v>
       </c>
       <c r="N18" s="7">
-        <v>1649476</v>
+        <v>5531648</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>72</v>
-      </c>
-      <c r="D19" s="7">
-        <v>76062</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="H19" s="7">
-        <v>71</v>
-      </c>
-      <c r="I19" s="7">
-        <v>76400</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="M19" s="7">
-        <v>143</v>
-      </c>
-      <c r="N19" s="7">
-        <v>152462</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2458</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2588272</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2656</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2790915</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5114</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5379187</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>2530</v>
-      </c>
-      <c r="D21" s="7">
-        <v>2664334</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="7">
-        <v>2727</v>
-      </c>
-      <c r="I21" s="7">
-        <v>2867315</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M21" s="7">
-        <v>5257</v>
-      </c>
-      <c r="N21" s="7">
-        <v>5531649</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>116</v>
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
